--- a/Tables/BaseType/EffectList.xlsx
+++ b/Tables/BaseType/EffectList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>效果器</t>
   </si>
@@ -28,241 +28,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>弹珠分裂</t>
+    <t>目标状态</t>
   </si>
   <si>
-    <t>弹珠击中目标时会分裂,每次发射可分裂#次</t>
-  </si>
-  <si>
-    <t>弹珠寻路</t>
-  </si>
-  <si>
-    <t>弹珠击中灵感后有#%的概率会自动飞向下个目标</t>
-  </si>
-  <si>
-    <t>弹珠暴击</t>
-  </si>
-  <si>
-    <t>弹珠击中目标后有#%的概率获得双倍的灵感</t>
-  </si>
-  <si>
-    <t>弹珠爆炸</t>
-  </si>
-  <si>
-    <t>弹珠击中目标时有#%的概率发生爆炸</t>
-  </si>
-  <si>
-    <t>弹珠冷却</t>
-  </si>
-  <si>
-    <t>弹珠的冷却时间减少#%</t>
-  </si>
-  <si>
-    <t>弹珠直行</t>
-  </si>
-  <si>
-    <t>弹珠击中目标后有#%的概率不会改变前进的方向</t>
-  </si>
-  <si>
-    <t>弹珠大力</t>
-  </si>
-  <si>
-    <t>弹珠的发射力道增加#</t>
-  </si>
-  <si>
-    <t>反弹加强</t>
-  </si>
-  <si>
-    <t>弹珠击中灵感后的反弹力道增加#</t>
-  </si>
-  <si>
-    <t>弹珠再生</t>
-  </si>
-  <si>
-    <t>弹珠击中目标后有#%的概率在场上随机位置生成一颗同样的灵感</t>
-  </si>
-  <si>
-    <t>弹珠连弹</t>
-  </si>
-  <si>
-    <t>弹珠连续击中同颜色的灵感时可以获得数值加成</t>
-  </si>
-  <si>
-    <t>冷却引力</t>
-  </si>
-  <si>
-    <t>弹珠冷却过程中周期性的吸收#码内的灵感</t>
-  </si>
-  <si>
-    <t>填表的时候，#需要乘100</t>
-  </si>
-  <si>
-    <t>重置冷却</t>
-  </si>
-  <si>
-    <t>弹珠发射结束时有#%的概率重置冷却时间</t>
-  </si>
-  <si>
-    <t>弹珠反射线</t>
-  </si>
-  <si>
-    <t>弹珠瞄准时可以看到反射后的方向</t>
-  </si>
-  <si>
-    <t>弹珠环绕</t>
-  </si>
-  <si>
-    <t>弹珠击中目标时在自身周围生成小球，最多可以环绕#个(小球击中目标后消失)</t>
-  </si>
-  <si>
-    <t>活力四射</t>
-  </si>
-  <si>
-    <t>弹珠冷却结束时向四周发射#颗穿透性的小球</t>
-  </si>
-  <si>
-    <t>冷却四射</t>
-  </si>
-  <si>
-    <t>弹珠进入冷却时向四周发射#颗穿透性的小球</t>
-  </si>
-  <si>
-    <t>横向波</t>
-  </si>
-  <si>
-    <t>弹珠击中目标时有#%的概率产生横向的冲击波</t>
-  </si>
-  <si>
-    <t>纵向波</t>
-  </si>
-  <si>
-    <t>弹珠击中目标时有#%的概率产生纵向的冲击波</t>
-  </si>
-  <si>
-    <t>十字波</t>
-  </si>
-  <si>
-    <t>弹珠击中目标时有#%的概率产生十字方向的冲击波</t>
-  </si>
-  <si>
-    <t>灵感延长</t>
-  </si>
-  <si>
-    <t>灵感的存在时间延长#%</t>
-  </si>
-  <si>
-    <t>冷却连击</t>
-  </si>
-  <si>
-    <t>弹珠每次连击可以提高#%的冷却速度</t>
-  </si>
-  <si>
-    <t>灵感枯竭</t>
-  </si>
-  <si>
-    <t>灵感消失时有#%的概率变成漏洞</t>
-  </si>
-  <si>
-    <t>五彩球</t>
-  </si>
-  <si>
-    <t>有#%的概率产出五彩灵感球</t>
-  </si>
-  <si>
-    <t>击中时随机吸收某种颜色的能力球</t>
-  </si>
-  <si>
-    <t>漏洞大师</t>
-  </si>
-  <si>
-    <t>产出漏洞的概率提高#%</t>
-  </si>
-  <si>
-    <t>彩虹球</t>
-  </si>
-  <si>
-    <t>有#%的概率产出彩色灵感球</t>
-  </si>
-  <si>
-    <t>击中时同时获得四种能力</t>
-  </si>
-  <si>
-    <t>修复产出</t>
-  </si>
-  <si>
-    <t>修复漏洞有#%的概率额外获得研究点</t>
-  </si>
-  <si>
-    <t>加速修复</t>
-  </si>
-  <si>
-    <t>修复漏洞的速度提高#%</t>
-  </si>
-  <si>
-    <t>提高创意</t>
-  </si>
-  <si>
-    <t>创意提高#点</t>
-  </si>
-  <si>
-    <t>提高技术</t>
-  </si>
-  <si>
-    <t>技术提高#点</t>
-  </si>
-  <si>
-    <t>提高画面</t>
-  </si>
-  <si>
-    <t>画面提高#点</t>
-  </si>
-  <si>
-    <t>提高音乐</t>
-  </si>
-  <si>
-    <t>音乐提高#点</t>
-  </si>
-  <si>
-    <t>降落伞</t>
-  </si>
-  <si>
-    <t>灵感的下落速度减缓#%</t>
-  </si>
-  <si>
-    <t>获得创意</t>
-  </si>
-  <si>
-    <t>获得创意：#</t>
-  </si>
-  <si>
-    <t>获得技术</t>
-  </si>
-  <si>
-    <t>获得技术：#</t>
-  </si>
-  <si>
-    <t>获得画面</t>
-  </si>
-  <si>
-    <t>获得画面：#</t>
-  </si>
-  <si>
-    <t>获得音乐</t>
-  </si>
-  <si>
-    <t>获得音乐：#</t>
-  </si>
-  <si>
-    <t>获得漏洞</t>
-  </si>
-  <si>
-    <t>获得漏洞：#</t>
-  </si>
-  <si>
-    <t>吸收同色球</t>
-  </si>
-  <si>
-    <t>击破场内所有某种颜色的灵感</t>
+    <t>给目标添加状态：#</t>
   </si>
 </sst>
 </file>
@@ -270,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -317,23 +86,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,20 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -367,24 +192,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,56 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,13 +250,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,67 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,109 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,39 +455,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,10 +491,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -781,6 +503,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,6 +536,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -807,10 +564,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,140 +576,140 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -978,12 +735,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2172,15 +1923,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -2208,428 +1959,12 @@
         <v>4</v>
       </c>
       <c r="B2" s="6">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1003</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1004</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1005</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1006</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1007</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1008</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1009</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1010</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1011</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1012</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1013</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1014</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1015</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1016</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1017</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1018</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1019</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1020</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1021</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1022</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2001</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2002</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2003</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2004</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="6">
-        <v>2005</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2006</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="6">
-        <v>2007</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="6">
-        <v>2008</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="6">
-        <v>2009</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="6">
-        <v>2010</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="6">
-        <v>6001</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="6">
-        <v>6002</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="6">
-        <v>6003</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="6">
-        <v>6004</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="6">
-        <v>6005</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="6">
-        <v>6010</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
